--- a/ログイン_単体テスト.xlsx
+++ b/ログイン_単体テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE18C679-669C-4B8F-BCA3-9F48C1334790}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E87DDC-B0A1-4860-9812-DE97AFBBB90A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="254">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -2592,28 +2592,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ログイン画面」の表示</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレス」のUIはテキストボックスになっているか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワード」のUIはテキストボックスになっているか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスになっている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>空欄となっている</t>
     <rPh sb="0" eb="2">
       <t>クウラン</t>
@@ -2701,16 +2679,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100文字に制限されている</t>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「メールアドレス」の最大入力文字は100文字となっているか</t>
     <rPh sb="10" eb="12">
       <t>サイダイ</t>
@@ -2769,16 +2737,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10文字に制限されている</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「エラーが発生したためログイン情報を取得できません。」が赤字で表示</t>
     <rPh sb="5" eb="7">
       <t>ハッセイ</t>
@@ -3033,6 +2991,90 @@
     <t>「このフィールドに入力してください」</t>
     <rPh sb="9" eb="11">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ログイン」の表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ログイン」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メールアドレス」の表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワード」の表示</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メールアドレス」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワード」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後にindex.phpにリダイレクトされるか</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.正しい「メールアドレス」「パスワード」を入力する</t>
+    <rPh sb="2" eb="3">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.「ログイン」ボタンを押し、index.phpに遷移</t>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.phpにリダイレクトする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10文字に制御される</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100文字に制御される</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4951,10 +4993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4965,7 +5007,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5005,7 +5047,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45833</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5051,16 +5093,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5069,7 +5115,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -5085,16 +5131,20 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5103,7 +5153,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -5119,16 +5169,20 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5137,7 +5191,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -5153,16 +5207,20 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5171,7 +5229,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -5187,16 +5245,20 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5205,7 +5267,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -5221,16 +5283,20 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5253,16 +5319,20 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5277,20 +5347,28 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="2">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5299,7 +5377,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
@@ -5307,20 +5385,28 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5329,7 +5415,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
@@ -5338,23 +5424,27 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5362,10 +5452,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
@@ -5374,23 +5464,27 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5399,7 +5493,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
@@ -5412,7 +5506,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
@@ -5421,23 +5515,27 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5446,12 +5544,50 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45991</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5527,7 +5663,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5566,13 +5702,13 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G8" s="3">
         <v>45840</v>
@@ -5588,7 +5724,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -5604,13 +5740,13 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G10" s="3">
         <v>45840</v>
@@ -5626,7 +5762,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -5642,13 +5778,13 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G12" s="3">
         <v>45840</v>
@@ -5664,7 +5800,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5680,13 +5816,13 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G14" s="3">
         <v>45840</v>
@@ -5702,7 +5838,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -5718,13 +5854,13 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="G16" s="3">
         <v>45840</v>
@@ -5740,7 +5876,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>

--- a/ログイン_単体テスト.xlsx
+++ b/ログイン_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E87DDC-B0A1-4860-9812-DE97AFBBB90A}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C6C8490-0984-40E8-8C31-C85BA69C2AB1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -4995,8 +4995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5480,10 +5480,10 @@
         <v>221</v>
       </c>
       <c r="G28" s="3">
-        <v>45991</v>
+        <v>45998</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I28" s="2"/>
     </row>
